--- a/Outliers.xlsx
+++ b/Outliers.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,110 +369,115 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>firstPolicy</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>birthday</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>salary</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>livingArea</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cmv</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>claims</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>lobMotor</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>lobHousehold</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>lobHealth</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>lobLife</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lobWork</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Outliers_salary</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>df_OutliersLow_cmv</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>df_OutliersHigh_cmv</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Outliers_claims</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Outliers_lobMot</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Outliers_lobHousehold</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Outliers_lobHealth</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Outliers_lobWork</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Outliers_lobLife</t>
         </is>
@@ -480,60 +485,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B2" t="n">
         <v>1982</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>1966</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3234</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>-14714.08</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>25.36</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>557.4400000000001</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>20</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>29.56</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-9</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -545,65 +550,68 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>113</v>
+      </c>
+      <c r="B3" t="n">
         <v>1997</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>1979</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>4 - PhD</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>2354</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>-8719.040000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>15.65</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>518.3200000000001</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>4.45</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>55.9</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>3.89</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>10.89</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -615,65 +623,68 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>136</v>
+      </c>
+      <c r="B4" t="n">
         <v>1997</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>1988</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2176</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
         <v>-10198.91</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>14.8</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>297.61</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>162.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>143.36</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>136.47</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-3</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -685,54 +696,57 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>150</v>
+      </c>
+      <c r="B5" t="n">
         <v>1989</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>1994</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1 - Basic</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>984</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>255.71</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.63</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>197.25</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>29.56</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>18.56</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>451.53</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
@@ -752,68 +766,71 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>172</v>
+      </c>
+      <c r="B6" t="n">
         <v>1990</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>1989</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1086</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>-165680.42</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>256.2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>378.07</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>166.81</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>6.89</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>18.45</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -825,65 +842,68 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>656</v>
+      </c>
+      <c r="B7" t="n">
         <v>1974</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>1963</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>3279</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
       <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>-64891</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>96</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>410.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>117.25</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>95.34999999999999</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>37.34</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>22.56</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -895,65 +915,68 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>676</v>
+      </c>
+      <c r="B8" t="n">
         <v>1994</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>1937</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>4435</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>-52382.76</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>63</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>197.48</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>280.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>276.94</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>51.12</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>38.34</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -965,65 +988,68 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1991</v>
+        <v>708</v>
       </c>
       <c r="B9" t="n">
         <v>1991</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1634</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
         <v>-28945.4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>35</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>175.7</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>319.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>294.39</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>44.12</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>16.89</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1035,65 +1061,68 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>759</v>
+      </c>
+      <c r="B10" t="n">
         <v>1988</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>1992</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1117</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
         <v>-10107.37</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>12.6</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>193.37</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>342.85</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>276.94</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>47.23</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1105,65 +1134,68 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>794</v>
+      </c>
+      <c r="B11" t="n">
         <v>1980</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>1983</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>1370</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
       <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
         <v>-7851.17</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>13.9</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>127.58</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>48.35</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>398.41</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>19.56</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>12.78</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1175,65 +1207,68 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>918</v>
+      </c>
+      <c r="B12" t="n">
         <v>1986</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>1952</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>3355</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>-26130.45</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>32.3</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>135.58</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>290.05</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>221.82</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>86.45999999999999</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>100.13</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1245,65 +1280,68 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>952</v>
+      </c>
+      <c r="B13" t="n">
         <v>1998</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>1976</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1586</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
       <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
         <v>-2642.91</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>5.6</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>501.65</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>-20</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>90.45999999999999</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>-1</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>-2</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1315,65 +1353,68 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>983</v>
+      </c>
+      <c r="B14" t="n">
         <v>1989</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>1981</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>1771</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
       <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
         <v>-6115.85</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>83.34999999999999</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>98.34999999999999</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>336.84</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>74.68000000000001</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>93.45999999999999</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1385,65 +1426,68 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B15" t="n">
         <v>1988</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>1939</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>4566</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
         <v>-2082.83</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>4.36</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>370.07</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>14.45</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>189.59</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>14.78</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>23.56</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1455,54 +1499,57 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>1746</v>
+      </c>
+      <c r="B16" t="n">
         <v>1980</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>1999</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>1 - Basic</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>376</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>4</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
         <v>797.92</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0.57</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>28.34</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>1223</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>106.91</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>65.68000000000001</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>494.1</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
@@ -1522,57 +1569,60 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>1776</v>
+      </c>
+      <c r="B17" t="n">
         <v>1986</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>1993</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>1121</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>3</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>-318.73</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>1.42</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>37.45</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>123.35</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>68.79000000000001</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>54.12</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>417.08</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
@@ -1592,65 +1642,68 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>2324</v>
+      </c>
+      <c r="B18" t="n">
         <v>1984</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>1997</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1 - Basic</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>782</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
         <v>2054.07</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.03</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>39.12</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>1957.6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>47.23</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>15.78</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>82.34999999999999</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1665,54 +1718,57 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>3485</v>
+      </c>
+      <c r="B19" t="n">
         <v>1992</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>1996</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>1696</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>535.22</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0.63</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>161.92</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>593.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>310.17</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>398.3</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>50.23</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
@@ -1735,62 +1791,65 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>5085</v>
+      </c>
+      <c r="B20" t="n">
         <v>1994</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>1959</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>3330</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>2314.21</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0.14</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>350.51</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>201.7</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>125.8</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>39.23</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1988.7</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -1802,57 +1861,60 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>5129</v>
+      </c>
+      <c r="B21" t="n">
         <v>1996</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>1943</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1 - Basic</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>3763</v>
       </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>466.21</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.9</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>4003.44</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>612.9</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>137.36</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>121.69</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>31.34</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
@@ -1863,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -1875,54 +1937,57 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>5212</v>
+      </c>
+      <c r="B22" t="n">
         <v>1981</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>1943</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>4135</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>3</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>130.14</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>0.99</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>8744.610000000001</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>101.7</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>1767</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>155.14</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>130.58</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
@@ -1933,138 +1998,144 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>5294</v>
+      </c>
+      <c r="B23" t="n">
         <v>1989</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>1963</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>3564</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
         <v>11875.89</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0.09</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>11604.42</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>48.9</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>1045.52</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>103.13</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>296.47</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B24" t="n">
         <v>1995</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>1956</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>55215</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>4</v>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
       <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>122.25</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>0.79</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>281.83</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>147.25</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>130.58</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>84.45999999999999</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>66.68000000000001</v>
       </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2085,54 +2156,57 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>6344</v>
+      </c>
+      <c r="B25" t="n">
         <v>1981</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>1949</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>2642</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
       <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.78</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>0.99</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>424.19</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>4130.7</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>118.69</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>15.67</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>41.45</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
@@ -2146,77 +2220,80 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>6702</v>
+      </c>
+      <c r="B26" t="n">
         <v>1995</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>1951</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>2947</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>4</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>4328.5</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>0.03</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>4273.49</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>105.13</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>3</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>3.89</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2225,54 +2302,57 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>6836</v>
+      </c>
+      <c r="B27" t="n">
         <v>1975</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>1966</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>2832</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
         <v>-31</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
         <v>535.1</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>8762.799999999999</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>41.12</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>-6</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>9.779999999999999</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
@@ -2286,77 +2366,80 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>7086</v>
+      </c>
+      <c r="B28" t="n">
         <v>1992</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>1963</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>2460</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>3</v>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
         <v>5596.84</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>0.01</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>5645.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>-25.55</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>49.01</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.89</v>
       </c>
       <c r="M28" t="n">
         <v>1.89</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2365,54 +2448,57 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>7905</v>
+      </c>
+      <c r="B29" t="n">
         <v>1974</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>1959</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>2354</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>4</v>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
       <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
         <v>-46.89</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>1.01</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>3106.62</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>30</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>59.01</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>12.89</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>9</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
@@ -2423,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2435,54 +2521,57 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>7962</v>
+      </c>
+      <c r="B30" t="n">
         <v>1995</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>1942</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>4002</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>3</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>1457.99</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>0.83</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>431.86</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>107.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>7322.48</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>12.89</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>930.4400000000001</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
@@ -2499,56 +2588,59 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>1</v>
       </c>
       <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>7963</v>
+      </c>
+      <c r="B31" t="n">
         <v>1975</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>1988</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>4 - PhD</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>1868</v>
       </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
         <v>-56.1</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>4.33</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
         <v>-15.55</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>12.89</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>12</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
@@ -2556,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -2571,56 +2663,59 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>8262</v>
+      </c>
+      <c r="B32" t="n">
         <v>1981</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>1991</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>34490</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>4</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>608.89</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>0.28</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>57.01</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>358.95</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>195.26</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>113.8</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>161.14</v>
       </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2641,54 +2736,57 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>8426</v>
+      </c>
+      <c r="B33" t="n">
         <v>1976</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>1996</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>1 - Basic</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>427</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>3</v>
       </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
       <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
         <v>-61.34</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>1.02</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>16.67</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>2223.75</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>37.45</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>36.34</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>67.79000000000001</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
@@ -2702,63 +2800,66 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>8867</v>
+      </c>
+      <c r="B34" t="n">
         <v>1978</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>1972</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>2618</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
         <v>473.54</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>0.98</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>508.43</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>25048.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>36.23</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>11.89</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
@@ -2772,63 +2873,66 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>9150</v>
+      </c>
+      <c r="B35" t="n">
         <v>1985</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>1994</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>2 - High School</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>987</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>3</v>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
       <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
         <v>804.05</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>0.97</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>26.34</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>829.05</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>28272</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>65.68000000000001</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>138.25</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
@@ -2845,71 +2949,74 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>9649</v>
+      </c>
+      <c r="B36" t="n">
         <v>1990</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>1950</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>3 - BSc/MSc</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>3574</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>3</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>-37327.08</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>69</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>319.06</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>-25.55</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>245.38</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>4.89</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>4.78</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -2921,6 +3028,9 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>0</v>
       </c>
     </row>
